--- a/data/SEV_v2_-_Session_1_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Session_1_-_Raw_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/MayhewFoodSensoryLab/Shared Documents/Sweet Enhancing Volatiles/SEV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubreydubois/Documents/SEV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C3CCE0815153B3949BAD97F01E54FD7ED52750C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C3E77E-CA8D-4A5C-AAA9-17916574F59A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9478EDD-EE1C-0345-8CE7-D560BED1ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="1" r:id="rId1"/>
@@ -499,11 +499,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -879,132 +879,132 @@
       <selection activeCell="A3" sqref="A3:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1001</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>44726.661934097225</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1002</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>44729.613633159723</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>44726.718629212963</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1004</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>44726.708580972219</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1005</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>44727.697719479169</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1006</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>44726.696295613423</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1007</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>44726.704637870367</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1008</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>44727.708607291665</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1009</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>44726.790647708331</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1010</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>44726.786488993057</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1011</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>44726.810229097224</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1012</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>44727.708408437502</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1014</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>44726.845182662037</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1015</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>44726.827529664355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1016</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>44726.829931793982</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1017</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>44726.832570578707</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1018</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>44726.828185613427</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1019</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>44727.702915266207</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1020</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>44727.695038564816</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1021</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>44727.698067303238</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1022</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>44727.782772002312</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1023</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>44727.782781064816</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1024</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>44727.795156284723</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1025</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>44729.706418032409</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1026</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>44727.82173398148</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1027</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>44729.698704224538</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1028</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>44727.819346388889</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1029</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>44729.625803518516</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1030</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>44727.832608379627</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1031</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>44727.824858865744</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1032</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>44729.693121736113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1033</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>44729.693096655094</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1034</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>44729.697600243053</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1035</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>44729.695955567127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1036</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>44729.791561979167</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1037</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>44729.782502986112</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1038</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>44729.780446666664</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1039</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>44729.783665428244</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1040</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>44729.785271886576</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1045</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>44729.794263495372</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1046</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>44729.830995011573</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1047</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>44729.840538888886</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1048</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>44729.638925335646</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1080</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>44727.868211215275</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1130</v>
       </c>
@@ -1644,17 +1644,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1671,17 +1671,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="72.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="72.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1839,22 +1839,22 @@
   <dimension ref="A1:J796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B653" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B472" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A527" sqref="A527:XFD544"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" style="5" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" style="5" customWidth="1"/>
+    <col min="5" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="25" style="6" customWidth="1"/>
     <col min="10" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I2" s="9" t="s">
         <v>88</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I3" s="17" t="s">
         <v>90</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>1001</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1001</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1001</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1001</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1001</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1001</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1001</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1001</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1001</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1001</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1001</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1001</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1001</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1001</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1001</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1002</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1002</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1002</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1002</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1002</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1002</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1002</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1002</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1002</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1002</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1002</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1002</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1002</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1002</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1002</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1002</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1002</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1003</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1003</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1003</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1003</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1003</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1003</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1003</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1003</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1003</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1003</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1003</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1003</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1003</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1003</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1003</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1003</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1003</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1003</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1004</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1004</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1004</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1004</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1004</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1004</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1004</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1004</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1004</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1004</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1004</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1004</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1004</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1004</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1004</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1004</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1004</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1004</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1005</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1005</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1005</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1005</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1005</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1005</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1005</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1005</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1005</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1005</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1005</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1005</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1005</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1005</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1005</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1005</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1005</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1005</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1006</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1006</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1006</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1006</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1006</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1006</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1006</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1006</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1006</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1006</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1006</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1006</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1006</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1006</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>1006</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1006</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1006</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1006</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1007</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1007</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1007</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1007</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1007</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1007</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1007</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1007</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>1007</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>1007</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1007</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>1007</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1007</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1007</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1007</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1007</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1007</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1007</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1008</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1008</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>1008</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1008</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1008</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1008</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1008</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1008</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>1008</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1008</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1008</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1008</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>1008</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1008</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1008</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1008</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1008</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>1008</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>1009</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1009</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>1009</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>1009</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>1009</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1009</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>1009</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>1009</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>1009</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1009</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1009</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>1009</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1009</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>1009</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>1009</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>1009</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>1009</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1009</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>1010</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1010</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>1010</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1010</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>1010</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>1010</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>1010</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1010</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>1010</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1010</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>1010</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>1010</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>1010</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1010</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1010</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>1010</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1010</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>1010</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1011</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1011</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>1011</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>1011</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1011</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>1011</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>1011</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1011</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>1011</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>1011</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1011</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>1011</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1011</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1011</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1011</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1011</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1011</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1011</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>1012</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>1012</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>1012</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1012</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>1012</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>1012</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>1012</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>1012</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>1012</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1012</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>1012</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>1012</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1012</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1012</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>1012</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>1012</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>1012</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1012</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1014</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>1014</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>1014</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>1014</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>1014</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>1014</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>1014</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>1014</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>1014</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>1014</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>1014</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>1014</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>1014</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>1014</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>1014</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>1014</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>1014</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>1014</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>1015</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>1015</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>1015</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>1015</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>1015</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>1015</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>1015</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>1015</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>1015</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>1015</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>1015</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>1015</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>1015</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>1015</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>1015</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>1015</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>1015</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>1015</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>1016</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>1016</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>1016</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>1016</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>1016</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>1016</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>1016</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>1016</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>1016</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>1016</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>1016</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>1016</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>1016</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>1016</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>1016</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>1016</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>1016</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>1016</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>1017</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>1017</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>1017</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>1017</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>1017</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>1017</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>1017</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>1017</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>1017</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>1017</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>1017</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>1017</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>1017</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>1017</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>1017</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>1017</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>1017</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>1017</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>1018</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>1018</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>1018</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>1018</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>1018</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>1018</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>1018</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>1018</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>1018</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>1018</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>1018</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>1018</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>1018</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>1018</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>1018</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>1018</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>1018</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>1018</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>1019</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>1019</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>1019</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>1019</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>1019</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>1019</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>1019</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>1019</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>1019</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>1019</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>1019</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>1019</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>1019</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>1019</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>1019</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>1019</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>1019</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>1019</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>1020</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>1020</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>1020</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>1020</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>1020</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>1020</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>1020</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>1020</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>1020</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>1020</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>1020</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>1020</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>1020</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>1020</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>1020</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>1020</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>1020</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>1020</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>1021</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>1021</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>1021</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>1021</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>1021</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>1021</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>1021</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>1021</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>1021</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>1021</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>1021</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>1021</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>1021</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>1021</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>1021</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>1021</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>1021</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>1021</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>1022</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>1022</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>1022</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>1022</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>1022</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>1022</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>1022</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>1022</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>1022</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>1022</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>1022</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>1022</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>1022</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>1022</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>1022</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>1022</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>1022</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>1022</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>1023</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>1023</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>1023</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>1023</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>1023</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>1023</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>1023</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>1023</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>1023</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>1023</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>1023</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>1023</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>1023</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>1023</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>1023</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>1023</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>1023</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>1023</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>1024</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>1024</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>1024</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>1024</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>1024</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>1024</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>1024</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>1024</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>1024</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>1024</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>1024</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>1024</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>1024</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>1024</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>1024</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>1024</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>1024</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>1024</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>1025</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>1025</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>1025</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>1025</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>1025</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>1025</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>1025</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>1025</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>1025</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>1025</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>1025</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>1025</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>1025</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>1025</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>1025</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>1025</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>1025</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>1025</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>1026</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>1026</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>1026</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>1026</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>1026</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>1026</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>1026</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>1026</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>1026</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>1026</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>1026</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>1026</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>1026</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>1026</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>1026</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>1026</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>1026</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>1026</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>1027</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>1027</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>1027</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>1027</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>1027</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>1027</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>1027</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>1027</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>1027</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>1027</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>1027</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>1027</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>1027</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>1027</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>1027</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>1027</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>1027</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>1027</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>1028</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>1028</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>1028</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>1028</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>1028</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>1028</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>1028</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>1028</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>1028</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>1028</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>1028</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>1028</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>1028</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>1028</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>1028</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>1028</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>1028</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>1028</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>1029</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>1029</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>1029</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>1029</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>1029</v>
       </c>
@@ -17634,7 +17634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>1029</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>1029</v>
       </c>
@@ -17698,7 +17698,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>1029</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>1029</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>1029</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>1029</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>1029</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>1029</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>1029</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>1029</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>1029</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>1029</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>1029</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>1030</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>1030</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>1030</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>1030</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>1030</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>1030</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>1030</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>1030</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>1030</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>1030</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>1030</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>1030</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>1030</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>1030</v>
       </c>
@@ -18498,7 +18498,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>1030</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>1030</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>1030</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>1030</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>1031</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>1031</v>
       </c>
@@ -18690,7 +18690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>1031</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>1031</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>1031</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>1031</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>1031</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>1031</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>1031</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>1031</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>1031</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>1031</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>1031</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>1031</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>1031</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>1031</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>1031</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>1031</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>1032</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>1032</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>1032</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>1032</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>1032</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>1032</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>1032</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>1032</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>1032</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>1032</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>1032</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>1032</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>1032</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>1032</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>1032</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>1032</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>1032</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>1032</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>1033</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>1033</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>1033</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>1033</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>1033</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>1033</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>1033</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>1033</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>1033</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>1033</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>1033</v>
       </c>
@@ -20130,7 +20130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>1033</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>1033</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>1033</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>1033</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>1033</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>1033</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>1033</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>1034</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>1034</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>1034</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>1034</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>1034</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>1034</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>1034</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>1034</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>1034</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>1034</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>1034</v>
       </c>
@@ -20706,7 +20706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>1034</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>1034</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>1034</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>1034</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>1034</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>1034</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>1034</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>1035</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>1035</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>1035</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>1035</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>1035</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>1035</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>1035</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>1035</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>1035</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>1035</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>1035</v>
       </c>
@@ -21282,7 +21282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>1035</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>1035</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>1035</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>1035</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>1035</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>1035</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>1035</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>1036</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>1036</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>1036</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>1036</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>1036</v>
       </c>
@@ -21666,7 +21666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>1036</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>1036</v>
       </c>
@@ -21730,7 +21730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>1036</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>1036</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>1036</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>1036</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>1036</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>1036</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>1036</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>1036</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>1036</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>1036</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>1036</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>1037</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>1037</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>1037</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>1037</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>1037</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>1037</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>1037</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>1037</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>1037</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>1037</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>1037</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>1037</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>1037</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>1037</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649">
         <v>1037</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>1037</v>
       </c>
@@ -22594,7 +22594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>1037</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>1037</v>
       </c>
@@ -22658,7 +22658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653">
         <v>1038</v>
       </c>
@@ -22690,7 +22690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654">
         <v>1038</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A655">
         <v>1038</v>
       </c>
@@ -22754,7 +22754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656">
         <v>1038</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A657">
         <v>1038</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A658">
         <v>1038</v>
       </c>
@@ -22850,7 +22850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>1038</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>1038</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>1038</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>1038</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>1038</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>1038</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>1038</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>1038</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>1038</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>1038</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>1038</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>1038</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>1039</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>1039</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>1039</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>1039</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>1039</v>
       </c>
@@ -23394,7 +23394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>1039</v>
       </c>
@@ -23426,7 +23426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>1039</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>1039</v>
       </c>
@@ -23490,7 +23490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A679">
         <v>1039</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>1039</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>1039</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>1039</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>1039</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>1039</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>1039</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>1039</v>
       </c>
@@ -23746,7 +23746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>1039</v>
       </c>
@@ -23778,7 +23778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>1039</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>1040</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>1040</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>1040</v>
       </c>
@@ -23906,7 +23906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>1040</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>1040</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>1040</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>1040</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>1040</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>1040</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698">
         <v>1040</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>1040</v>
       </c>
@@ -24162,7 +24162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>1040</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>1040</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702">
         <v>1040</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>1040</v>
       </c>
@@ -24290,7 +24290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>1040</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>1040</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>1040</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>1045</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>1045</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>1045</v>
       </c>
@@ -24482,7 +24482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>1045</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>1045</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>1045</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>1045</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>1045</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>1045</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>1045</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>1045</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>1045</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>1045</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>1045</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>1045</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>1045</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>1045</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>1045</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>1046</v>
       </c>
@@ -24994,7 +24994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>1046</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>1046</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>1046</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>1046</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>1046</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>1046</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>1046</v>
       </c>
@@ -25218,7 +25218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>1046</v>
       </c>
@@ -25250,7 +25250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>1046</v>
       </c>
@@ -25282,7 +25282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>1046</v>
       </c>
@@ -25314,7 +25314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>1046</v>
       </c>
@@ -25346,7 +25346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>1046</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>1046</v>
       </c>
@@ -25410,7 +25410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>1046</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>1046</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>1046</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>1046</v>
       </c>
@@ -25538,7 +25538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>1047</v>
       </c>
@@ -25570,7 +25570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>1047</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>1047</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A746">
         <v>1047</v>
       </c>
@@ -25666,7 +25666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A747">
         <v>1047</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A748">
         <v>1047</v>
       </c>
@@ -25730,7 +25730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A749">
         <v>1047</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A750">
         <v>1047</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A751">
         <v>1047</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A752">
         <v>1047</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A753">
         <v>1047</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A754">
         <v>1047</v>
       </c>
@@ -25922,7 +25922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A755">
         <v>1047</v>
       </c>
@@ -25954,7 +25954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A756">
         <v>1047</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A757">
         <v>1047</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A758">
         <v>1047</v>
       </c>
@@ -26050,7 +26050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A759">
         <v>1047</v>
       </c>
@@ -26082,7 +26082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A760">
         <v>1047</v>
       </c>
@@ -26114,7 +26114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A761">
         <v>1048</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A762">
         <v>1048</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A763">
         <v>1048</v>
       </c>
@@ -26210,7 +26210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A764">
         <v>1048</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A765">
         <v>1048</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766">
         <v>1048</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A767">
         <v>1048</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768">
         <v>1048</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A769">
         <v>1048</v>
       </c>
@@ -26402,7 +26402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A770">
         <v>1048</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A771">
         <v>1048</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A772">
         <v>1048</v>
       </c>
@@ -26498,7 +26498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A773">
         <v>1048</v>
       </c>
@@ -26530,7 +26530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A774">
         <v>1048</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A775">
         <v>1048</v>
       </c>
@@ -26594,7 +26594,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A776">
         <v>1048</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A777">
         <v>1048</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A778">
         <v>1048</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A779">
         <v>1080</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A780">
         <v>1080</v>
       </c>
@@ -26754,7 +26754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A781">
         <v>1080</v>
       </c>
@@ -26786,7 +26786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A782">
         <v>1080</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A783">
         <v>1080</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A784">
         <v>1080</v>
       </c>
@@ -26882,7 +26882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A785">
         <v>1080</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A786">
         <v>1080</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A787">
         <v>1080</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A788">
         <v>1080</v>
       </c>
@@ -27010,7 +27010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A789">
         <v>1080</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A790">
         <v>1080</v>
       </c>
@@ -27074,7 +27074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A791">
         <v>1080</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A792">
         <v>1080</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A793">
         <v>1080</v>
       </c>
@@ -27170,7 +27170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A794">
         <v>1080</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A795">
         <v>1080</v>
       </c>
@@ -27234,7 +27234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A796">
         <v>1080</v>
       </c>
@@ -27280,6 +27280,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa692c46-34ab-46f9-a979-d3cb1eaf5929">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100218F9FC9666D7049AE1A0C531ACF9637" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c37b320595883f1241591c30f20e40">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa692c46-34ab-46f9-a979-d3cb1eaf5929" xmlns:ns3="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a80417e317266902b255f2b85409d5f5" ns2:_="" ns3:_="">
     <xsd:import namespace="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
@@ -27476,27 +27496,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF6F10B-F069-4444-A9AA-4DC2ED3B10D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
+    <ds:schemaRef ds:uri="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa692c46-34ab-46f9-a979-d3cb1eaf5929">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A1F02C-4A52-48A9-89CD-28513A91675E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5588991C-F851-4FA6-BC5B-2BECE6BA1390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27513,23 +27532,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A1F02C-4A52-48A9-89CD-28513A91675E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF6F10B-F069-4444-A9AA-4DC2ED3B10D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
-    <ds:schemaRef ds:uri="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>